--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>242.893198350688</v>
+        <v>2.452389333333333</v>
       </c>
       <c r="H2">
-        <v>242.893198350688</v>
+        <v>7.357168</v>
       </c>
       <c r="I2">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="J2">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.12329362748815</v>
+        <v>3.349417</v>
       </c>
       <c r="N2">
-        <v>2.12329362748815</v>
+        <v>10.048251</v>
       </c>
       <c r="O2">
-        <v>0.04022183088525105</v>
+        <v>0.0602955800561437</v>
       </c>
       <c r="P2">
-        <v>0.04022183088525105</v>
+        <v>0.0602955800561437</v>
       </c>
       <c r="Q2">
-        <v>515.7335802182312</v>
+        <v>8.214074523685333</v>
       </c>
       <c r="R2">
-        <v>515.7335802182312</v>
+        <v>73.92667071316799</v>
       </c>
       <c r="S2">
-        <v>0.03365100048802806</v>
+        <v>0.0004819888363667147</v>
       </c>
       <c r="T2">
-        <v>0.03365100048802806</v>
+        <v>0.0004819888363667146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>242.893198350688</v>
+        <v>2.452389333333333</v>
       </c>
       <c r="H3">
-        <v>242.893198350688</v>
+        <v>7.357168</v>
       </c>
       <c r="I3">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="J3">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.26620425489143</v>
+        <v>1.282876</v>
       </c>
       <c r="N3">
-        <v>1.26620425489143</v>
+        <v>3.848628</v>
       </c>
       <c r="O3">
-        <v>0.02398587399646526</v>
+        <v>0.023094094452887</v>
       </c>
       <c r="P3">
-        <v>0.02398587399646526</v>
+        <v>0.02309409445288699</v>
       </c>
       <c r="Q3">
-        <v>307.5524012358292</v>
+        <v>3.146111418389333</v>
       </c>
       <c r="R3">
-        <v>307.5524012358292</v>
+        <v>28.315002765504</v>
       </c>
       <c r="S3">
-        <v>0.02006742706127795</v>
+        <v>0.000184608817129305</v>
       </c>
       <c r="T3">
-        <v>0.02006742706127795</v>
+        <v>0.000184608817129305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>242.893198350688</v>
+        <v>2.452389333333333</v>
       </c>
       <c r="H4">
-        <v>242.893198350688</v>
+        <v>7.357168</v>
       </c>
       <c r="I4">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="J4">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.4000838138316</v>
+        <v>50.917666</v>
       </c>
       <c r="N4">
-        <v>49.4000838138316</v>
+        <v>152.752998</v>
       </c>
       <c r="O4">
-        <v>0.9357922951182837</v>
+        <v>0.9166103254909692</v>
       </c>
       <c r="P4">
-        <v>0.9357922951182837</v>
+        <v>0.9166103254909692</v>
       </c>
       <c r="Q4">
-        <v>11998.94435633361</v>
+        <v>124.8699409766293</v>
       </c>
       <c r="R4">
-        <v>11998.94435633361</v>
+        <v>1123.829468789664</v>
       </c>
       <c r="S4">
-        <v>0.7829167963426914</v>
+        <v>0.007327169649479007</v>
       </c>
       <c r="T4">
-        <v>0.7829167963426914</v>
+        <v>0.007327169649479007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.4283078617297</v>
+        <v>243.5672963333334</v>
       </c>
       <c r="H5">
-        <v>47.4283078617297</v>
+        <v>730.7018890000001</v>
       </c>
       <c r="I5">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="J5">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.12329362748815</v>
+        <v>3.349417</v>
       </c>
       <c r="N5">
-        <v>2.12329362748815</v>
+        <v>10.048251</v>
       </c>
       <c r="O5">
-        <v>0.04022183088525105</v>
+        <v>0.0602955800561437</v>
       </c>
       <c r="P5">
-        <v>0.04022183088525105</v>
+        <v>0.0602955800561437</v>
       </c>
       <c r="Q5">
-        <v>100.7042238453568</v>
+        <v>815.8084429829045</v>
       </c>
       <c r="R5">
-        <v>100.7042238453568</v>
+        <v>7342.27598684614</v>
       </c>
       <c r="S5">
-        <v>0.00657083039722298</v>
+        <v>0.04787034266582881</v>
       </c>
       <c r="T5">
-        <v>0.00657083039722298</v>
+        <v>0.0478703426658288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.4283078617297</v>
+        <v>243.5672963333334</v>
       </c>
       <c r="H6">
-        <v>47.4283078617297</v>
+        <v>730.7018890000001</v>
       </c>
       <c r="I6">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="J6">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.26620425489143</v>
+        <v>1.282876</v>
       </c>
       <c r="N6">
-        <v>1.26620425489143</v>
+        <v>3.848628</v>
       </c>
       <c r="O6">
-        <v>0.02398587399646526</v>
+        <v>0.023094094452887</v>
       </c>
       <c r="P6">
-        <v>0.02398587399646526</v>
+        <v>0.02309409445288699</v>
       </c>
       <c r="Q6">
-        <v>60.05392521682281</v>
+        <v>312.4666388509214</v>
       </c>
       <c r="R6">
-        <v>60.05392521682281</v>
+        <v>2812.199749658292</v>
       </c>
       <c r="S6">
-        <v>0.003918446935187308</v>
+        <v>0.01833504568638894</v>
       </c>
       <c r="T6">
-        <v>0.003918446935187308</v>
+        <v>0.01833504568638894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>243.5672963333334</v>
+      </c>
+      <c r="H7">
+        <v>730.7018890000001</v>
+      </c>
+      <c r="I7">
+        <v>0.7939278902575405</v>
+      </c>
+      <c r="J7">
+        <v>0.7939278902575405</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>50.917666</v>
+      </c>
+      <c r="N7">
+        <v>152.752998</v>
+      </c>
+      <c r="O7">
+        <v>0.9166103254909692</v>
+      </c>
+      <c r="P7">
+        <v>0.9166103254909692</v>
+      </c>
+      <c r="Q7">
+        <v>12401.87824322369</v>
+      </c>
+      <c r="R7">
+        <v>111616.9041890132</v>
+      </c>
+      <c r="S7">
+        <v>0.7277225019053227</v>
+      </c>
+      <c r="T7">
+        <v>0.7277225019053227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>60.76799533333334</v>
+      </c>
+      <c r="H8">
+        <v>182.303986</v>
+      </c>
+      <c r="I8">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="J8">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.349417</v>
+      </c>
+      <c r="N8">
+        <v>10.048251</v>
+      </c>
+      <c r="O8">
+        <v>0.0602955800561437</v>
+      </c>
+      <c r="P8">
+        <v>0.0602955800561437</v>
+      </c>
+      <c r="Q8">
+        <v>203.5373566253874</v>
+      </c>
+      <c r="R8">
+        <v>1831.836209628486</v>
+      </c>
+      <c r="S8">
+        <v>0.01194324855394818</v>
+      </c>
+      <c r="T8">
+        <v>0.01194324855394818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>47.4283078617297</v>
-      </c>
-      <c r="H7">
-        <v>47.4283078617297</v>
-      </c>
-      <c r="I7">
-        <v>0.1633647761080026</v>
-      </c>
-      <c r="J7">
-        <v>0.1633647761080026</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>49.4000838138316</v>
-      </c>
-      <c r="N7">
-        <v>49.4000838138316</v>
-      </c>
-      <c r="O7">
-        <v>0.9357922951182837</v>
-      </c>
-      <c r="P7">
-        <v>0.9357922951182837</v>
-      </c>
-      <c r="Q7">
-        <v>2342.962383517655</v>
-      </c>
-      <c r="R7">
-        <v>2342.962383517655</v>
-      </c>
-      <c r="S7">
-        <v>0.1528754987755923</v>
-      </c>
-      <c r="T7">
-        <v>0.1528754987755923</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>60.76799533333334</v>
+      </c>
+      <c r="H9">
+        <v>182.303986</v>
+      </c>
+      <c r="I9">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="J9">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.282876</v>
+      </c>
+      <c r="N9">
+        <v>3.848628</v>
+      </c>
+      <c r="O9">
+        <v>0.023094094452887</v>
+      </c>
+      <c r="P9">
+        <v>0.02309409445288699</v>
+      </c>
+      <c r="Q9">
+        <v>77.95780278124535</v>
+      </c>
+      <c r="R9">
+        <v>701.6202250312081</v>
+      </c>
+      <c r="S9">
+        <v>0.00457443994936875</v>
+      </c>
+      <c r="T9">
+        <v>0.004574439949368749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60.76799533333334</v>
+      </c>
+      <c r="H10">
+        <v>182.303986</v>
+      </c>
+      <c r="I10">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="J10">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>50.917666</v>
+      </c>
+      <c r="N10">
+        <v>152.752998</v>
+      </c>
+      <c r="O10">
+        <v>0.9166103254909692</v>
+      </c>
+      <c r="P10">
+        <v>0.9166103254909692</v>
+      </c>
+      <c r="Q10">
+        <v>3094.164489872225</v>
+      </c>
+      <c r="R10">
+        <v>27847.48040885003</v>
+      </c>
+      <c r="S10">
+        <v>0.1815606539361675</v>
+      </c>
+      <c r="T10">
+        <v>0.1815606539361675</v>
       </c>
     </row>
   </sheetData>
